--- a/src/main/resources/report/sample.xlsx
+++ b/src/main/resources/report/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijufumi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USB DISK/IdeaProjects/proto/openreports_scala/src/main/resources/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5E6CE6-8452-0E4C-8711-15DEA0D96A56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369DC2D-8778-F54F-ADEB-E67894ACEE3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
   </bookViews>
@@ -24,17 +24,86 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>伊集貴史</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E755F418-E282-A845-AC27-D65FCF9FDA89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jx:each(items="jdbc.query('select * from member)" var="mem")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>${member.member_id}</t>
+  </si>
+  <si>
+    <t>${member.email_address}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,13 +111,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,21 +486,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA918369-A205-4A4F-9447-99770A7F7E72}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA918369-A205-4A4F-9447-99770A7F7E72}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/report/sample.xlsx
+++ b/src/main/resources/report/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USB DISK/IdeaProjects/proto/openreports_scala/src/main/resources/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369DC2D-8778-F54F-ADEB-E67894ACEE3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A3A58-ACCD-A945-8618-13519CDB01B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
+    <workbookView xWindow="10440" yWindow="1740" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,49 +30,29 @@
     <author>伊集貴史</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E755F418-E282-A845-AC27-D65FCF9FDA89}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4C44212A-605B-DE4D-A36B-830D459F870B}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="18"/>
+            <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Автор:</t>
+          <t>jx:area(lastCell="B3")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E755F418-E282-A845-AC27-D65FCF9FDA89}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>jx:each(items="jdbc.query('select * from member)" var="mem")</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">jx:each(items="jdbc.query('select * from member')" var="mem" lastCell="B3")
 </t>
         </r>
       </text>
@@ -93,17 +73,17 @@
     <t>email_address</t>
   </si>
   <si>
-    <t>${member.member_id}</t>
+    <t>${mem.member_id}</t>
   </si>
   <si>
-    <t>${member.email_address}</t>
+    <t>${mem.email_address}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,26 +100,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -490,7 +460,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/report/sample.xlsx
+++ b/src/main/resources/report/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USB DISK/IdeaProjects/proto/openreports_scala/src/main/resources/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A3A58-ACCD-A945-8618-13519CDB01B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19AEFB-A6F6-494C-892C-08FA90577CFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1740" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="jdbc.query('select * from member')" var="mem" lastCell="B3")
+          <t xml:space="preserve">jx:each(items="jdbc.query('select * from t_member')" var="mem" lastCell="B3")
 </t>
         </r>
       </text>
@@ -459,9 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA918369-A205-4A4F-9447-99770A7F7E72}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/src/main/resources/report/sample.xlsx
+++ b/src/main/resources/report/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USB DISK/IdeaProjects/proto/openreports_scala/src/main/resources/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijufumi/workspaces/ijufumi/production/openreports-api/src/main/resources/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19AEFB-A6F6-494C-892C-08FA90577CFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792B109-4F03-9B41-8DF1-355153B7DE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{3C197EC1-2AF9-C04B-AB58-5E204AD8FB07}"/>
   </bookViews>
@@ -43,56 +43,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E755F418-E282-A845-AC27-D65FCF9FDA89}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="jdbc.query('select * from t_member')" var="mem" lastCell="B3")
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>${mem.member_id}</t>
-  </si>
-  <si>
-    <t>${mem.email_address}</t>
+    <t>${today}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,28 +68,16 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,11 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA918369-A205-4A4F-9447-99770A7F7E72}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,25 +418,9 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
